--- a/swing_strategy_vix_sim_balanced_20260126.xlsx
+++ b/swing_strategy_vix_sim_balanced_20260126.xlsx
@@ -765,7 +765,7 @@
         <v>33.81</v>
       </c>
       <c r="G4" t="n">
-        <v>37.12</v>
+        <v>37.16</v>
       </c>
       <c r="H4" t="n">
         <v>86.12</v>
@@ -949,7 +949,7 @@
         <v>60.17</v>
       </c>
       <c r="G6" t="n">
-        <v>87.56</v>
+        <v>65.08</v>
       </c>
       <c r="H6" t="n">
         <v>70.76000000000001</v>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>91.95</v>
+        <v>96.55</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>35.4</v>
+        <v>37.17</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>53.42</v>
+        <v>56.1</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1849,59 +1849,59 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SHC</t>
+          <t>TILE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18.51</v>
+        <v>31.18</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18.44 - 18.66</t>
+          <t>31.18 - 31.56</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>18.55</v>
+        <v>31.37</v>
       </c>
       <c r="F16" t="n">
-        <v>17.72</v>
+        <v>29.97</v>
       </c>
       <c r="G16" t="n">
-        <v>19.16</v>
+        <v>32.4</v>
       </c>
       <c r="H16" t="n">
-        <v>80.59999999999999</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.85</v>
+        <v>0.62</v>
       </c>
       <c r="K16" t="n">
-        <v>1.83</v>
+        <v>0.62</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="M16" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="N16" t="n">
-        <v>284093929</v>
+        <v>58390617</v>
       </c>
       <c r="O16" t="n">
-        <v>0.78</v>
+        <v>1.05</v>
       </c>
       <c r="P16" t="n">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="Q16" t="n">
-        <v>5369375232</v>
+        <v>1859157248</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1910,16 +1910,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>49.38</v>
+        <v>50.62</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -1941,59 +1941,59 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TILE</t>
+          <t>SHC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31.18</v>
+        <v>18.51</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>31.18 - 31.56</t>
+          <t>18.44 - 18.66</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>31.37</v>
+        <v>18.55</v>
       </c>
       <c r="F17" t="n">
-        <v>29.97</v>
+        <v>17.72</v>
       </c>
       <c r="G17" t="n">
-        <v>32.4</v>
+        <v>19.16</v>
       </c>
       <c r="H17" t="n">
-        <v>78.98999999999999</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0.62</v>
+        <v>1.85</v>
       </c>
       <c r="K17" t="n">
-        <v>0.62</v>
+        <v>1.83</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="N17" t="n">
-        <v>58390617</v>
+        <v>284093929</v>
       </c>
       <c r="O17" t="n">
-        <v>1.05</v>
+        <v>0.78</v>
       </c>
       <c r="P17" t="n">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>1859157248</v>
+        <v>5369375232</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2002,16 +2002,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>48.21</v>
+        <v>49.38</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -2125,59 +2125,59 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BORR</t>
+          <t>VFC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.47</v>
+        <v>19.74</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.53 - 4.58</t>
+          <t>19.65 - 19.89</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.56</v>
+        <v>19.77</v>
       </c>
       <c r="F19" t="n">
-        <v>4.2</v>
+        <v>18.36</v>
       </c>
       <c r="G19" t="n">
-        <v>4.71</v>
+        <v>20.42</v>
       </c>
       <c r="H19" t="n">
-        <v>88.34</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.87</v>
+        <v>2.64</v>
       </c>
       <c r="K19" t="n">
-        <v>1.56</v>
+        <v>2.54</v>
       </c>
       <c r="L19" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="N19" t="n">
-        <v>306872798</v>
+        <v>390724758</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.07000000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1344102912</v>
+        <v>7791052288</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2186,11 +2186,11 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>37.08</v>
+        <v>38.51</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>控盘减弱预警</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -2217,59 +2217,59 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GSL</t>
+          <t>BORR</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>36.09</v>
+        <v>4.47</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>36.12 - 36.56</t>
+          <t>4.53 - 4.58</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36.34</v>
+        <v>4.56</v>
       </c>
       <c r="F20" t="n">
-        <v>34.57</v>
+        <v>4.2</v>
       </c>
       <c r="G20" t="n">
-        <v>37.53</v>
+        <v>4.71</v>
       </c>
       <c r="H20" t="n">
-        <v>86.67</v>
+        <v>88.34</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>0.17</v>
+        <v>1.87</v>
       </c>
       <c r="K20" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M20" t="n">
-        <v>0.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N20" t="n">
-        <v>35770652</v>
+        <v>306872798</v>
       </c>
       <c r="O20" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="P20" t="n">
-        <v>0.17</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>1298116992</v>
+        <v>1344102912</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2278,11 +2278,11 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>36.92</v>
+        <v>37.08</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>控盘减弱预警</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>mid</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -2309,59 +2309,59 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VFC</t>
+          <t>GSL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19.74</v>
+        <v>36.09</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19.65 - 19.89</t>
+          <t>36.12 - 36.56</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19.77</v>
+        <v>36.34</v>
       </c>
       <c r="F21" t="n">
-        <v>18.36</v>
+        <v>34.57</v>
       </c>
       <c r="G21" t="n">
-        <v>20.42</v>
+        <v>37.53</v>
       </c>
       <c r="H21" t="n">
-        <v>68.95999999999999</v>
+        <v>86.67</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.64</v>
+        <v>0.17</v>
       </c>
       <c r="K21" t="n">
-        <v>2.54</v>
+        <v>0.16</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="N21" t="n">
-        <v>390724758</v>
+        <v>35770652</v>
       </c>
       <c r="O21" t="n">
-        <v>0.92</v>
+        <v>0.48</v>
       </c>
       <c r="P21" t="n">
-        <v>4.3</v>
+        <v>0.17</v>
       </c>
       <c r="Q21" t="n">
-        <v>7791052288</v>
+        <v>1298116992</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>36.67</v>
+        <v>36.92</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>34.46</v>
+        <v>36.18</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>57.64</v>
+        <v>60.52</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3408,60 +3408,60 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>RPRX</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>54.65</v>
+        <v>40.4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>54.32 - 54.97</t>
+          <t>40.00 - 40.49</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>54.65</v>
+        <v>40.25</v>
       </c>
       <c r="F33" t="n">
-        <v>52.19</v>
+        <v>38.43</v>
       </c>
       <c r="G33" t="n">
-        <v>56.45</v>
+        <v>41.58</v>
       </c>
       <c r="H33" t="n">
-        <v>59.56</v>
+        <v>73.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.82</v>
+        <v>-0.47</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.45</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="M33" t="n">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="N33" t="n">
-        <v>2035753027</v>
+        <v>427247489</v>
       </c>
       <c r="O33" t="n">
         <v>0.82</v>
       </c>
       <c r="P33" t="n">
-        <v>0.89</v>
+        <v>-0.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>111253905408</v>
+        <v>23391121408</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -3474,16 +3474,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>45.49</v>
+        <v>48.42</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>明确吸筹</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -3500,64 +3500,64 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>REX</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>54.65</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>33.89 - 34.30</t>
+          <t>54.32 - 54.97</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.09</v>
+        <v>54.65</v>
       </c>
       <c r="F34" t="n">
-        <v>32.56</v>
+        <v>52.19</v>
       </c>
       <c r="G34" t="n">
-        <v>35.61</v>
+        <v>56.45</v>
       </c>
       <c r="H34" t="n">
-        <v>82</v>
+        <v>59.56</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.04</v>
+        <v>0.82</v>
       </c>
       <c r="K34" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L34" t="n">
         <v>0.03</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
       <c r="N34" t="n">
-        <v>32937718</v>
+        <v>2035753027</v>
       </c>
       <c r="O34" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.03</v>
+        <v>0.89</v>
       </c>
       <c r="Q34" t="n">
-        <v>1142469760</v>
+        <v>111253905408</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>31.36</v>
+        <v>45.49</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>机构偏多</t>
         </is>
       </c>
     </row>
@@ -3597,59 +3597,59 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>REX</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>153.24</v>
+        <v>34</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>152.22 - 154.06</t>
+          <t>33.89 - 34.30</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>153.14</v>
+        <v>34.09</v>
       </c>
       <c r="F35" t="n">
-        <v>146.24</v>
+        <v>32.56</v>
       </c>
       <c r="G35" t="n">
-        <v>158.2</v>
+        <v>35.61</v>
       </c>
       <c r="H35" t="n">
-        <v>71.39</v>
+        <v>82</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0.11</v>
+        <v>-0.04</v>
       </c>
       <c r="K35" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="L35" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.58</v>
+        <v>0.09</v>
       </c>
       <c r="N35" t="n">
-        <v>1110467095</v>
+        <v>32937718</v>
       </c>
       <c r="O35" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="P35" t="n">
-        <v>0.53</v>
+        <v>-0.03</v>
       </c>
       <c r="Q35" t="n">
-        <v>170747068416</v>
+        <v>1142469760</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>23.98</v>
+        <v>31.36</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
